--- a/biology/Neurosciences/Neurohormone/Neurohormone.xlsx
+++ b/biology/Neurosciences/Neurohormone/Neurohormone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une neurohormone est un messager chimique produit par un neurone et qui agit comme une hormone.
 Elle est créée et libérée exactement comme un neurotransmetteur, mais là où le neurotransmetteur agit sur un neurone à une distance très réduite (la synapse), la neurohormone agit à distance, comme une hormone, sur l'ensemble des cellules pouvant être affectées.
